--- a/formwork.xlsx
+++ b/formwork.xlsx
@@ -5,20 +5,24 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QT\demoFile\build-DataProcessing-Desktop_Qt_6_2_4_MSVC2019_64bit-Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QT\demoFile\DataProcessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4018D448-6E2F-4675-B268-DC8E61B12ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70DFD8D-EDDB-46A4-BCE3-4C5685BDD4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="12240" windowWidth="22149" windowHeight="13200" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3643" yWindow="14931" windowWidth="16457" windowHeight="9498" tabRatio="721" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1过程成绩" sheetId="14" r:id="rId1"/>
+    <sheet name="1成绩" sheetId="14" r:id="rId1"/>
+    <sheet name="2成绩 " sheetId="16" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="OLE_LINK1" localSheetId="0">'1过程成绩'!#REF!</definedName>
-    <definedName name="OLE_LINK3" localSheetId="0">'1过程成绩'!$A$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'1过程成绩'!$4:$6</definedName>
+    <definedName name="OLE_LINK1" localSheetId="0">'1成绩'!#REF!</definedName>
+    <definedName name="OLE_LINK1" localSheetId="1">'2成绩 '!#REF!</definedName>
+    <definedName name="OLE_LINK3" localSheetId="0">'1成绩'!$A$1</definedName>
+    <definedName name="OLE_LINK3" localSheetId="1">'2成绩 '!$A$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'1成绩'!$4:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'2成绩 '!$4:$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="13">
   <si>
     <t>作业</t>
   </si>
@@ -424,7 +428,19 @@
     <cellStyle name="常规 4" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="常规 5" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -742,7 +758,7 @@
   </sheetPr>
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -1653,7 +1669,934 @@
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="O10:P10">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
+      <formula>0.3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.78740157480314998" bottom="0.59055118110236204" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AA6178-9ECE-492B-A41D-F4B3823FA578}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:P49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="13.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.08984375" style="1" customWidth="1"/>
+    <col min="3" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.90625" style="1" customWidth="1"/>
+    <col min="11" max="245" width="9" style="1"/>
+    <col min="246" max="246" width="13.453125" style="1" customWidth="1"/>
+    <col min="247" max="247" width="8.08984375" style="1" customWidth="1"/>
+    <col min="248" max="263" width="5.6328125" style="1" customWidth="1"/>
+    <col min="264" max="501" width="9" style="1"/>
+    <col min="502" max="502" width="13.453125" style="1" customWidth="1"/>
+    <col min="503" max="503" width="8.08984375" style="1" customWidth="1"/>
+    <col min="504" max="519" width="5.6328125" style="1" customWidth="1"/>
+    <col min="520" max="757" width="9" style="1"/>
+    <col min="758" max="758" width="13.453125" style="1" customWidth="1"/>
+    <col min="759" max="759" width="8.08984375" style="1" customWidth="1"/>
+    <col min="760" max="775" width="5.6328125" style="1" customWidth="1"/>
+    <col min="776" max="1013" width="9" style="1"/>
+    <col min="1014" max="1014" width="13.453125" style="1" customWidth="1"/>
+    <col min="1015" max="1015" width="8.08984375" style="1" customWidth="1"/>
+    <col min="1016" max="1031" width="5.6328125" style="1" customWidth="1"/>
+    <col min="1032" max="1269" width="9" style="1"/>
+    <col min="1270" max="1270" width="13.453125" style="1" customWidth="1"/>
+    <col min="1271" max="1271" width="8.08984375" style="1" customWidth="1"/>
+    <col min="1272" max="1287" width="5.6328125" style="1" customWidth="1"/>
+    <col min="1288" max="1525" width="9" style="1"/>
+    <col min="1526" max="1526" width="13.453125" style="1" customWidth="1"/>
+    <col min="1527" max="1527" width="8.08984375" style="1" customWidth="1"/>
+    <col min="1528" max="1543" width="5.6328125" style="1" customWidth="1"/>
+    <col min="1544" max="1781" width="9" style="1"/>
+    <col min="1782" max="1782" width="13.453125" style="1" customWidth="1"/>
+    <col min="1783" max="1783" width="8.08984375" style="1" customWidth="1"/>
+    <col min="1784" max="1799" width="5.6328125" style="1" customWidth="1"/>
+    <col min="1800" max="2037" width="9" style="1"/>
+    <col min="2038" max="2038" width="13.453125" style="1" customWidth="1"/>
+    <col min="2039" max="2039" width="8.08984375" style="1" customWidth="1"/>
+    <col min="2040" max="2055" width="5.6328125" style="1" customWidth="1"/>
+    <col min="2056" max="2293" width="9" style="1"/>
+    <col min="2294" max="2294" width="13.453125" style="1" customWidth="1"/>
+    <col min="2295" max="2295" width="8.08984375" style="1" customWidth="1"/>
+    <col min="2296" max="2311" width="5.6328125" style="1" customWidth="1"/>
+    <col min="2312" max="2549" width="9" style="1"/>
+    <col min="2550" max="2550" width="13.453125" style="1" customWidth="1"/>
+    <col min="2551" max="2551" width="8.08984375" style="1" customWidth="1"/>
+    <col min="2552" max="2567" width="5.6328125" style="1" customWidth="1"/>
+    <col min="2568" max="2805" width="9" style="1"/>
+    <col min="2806" max="2806" width="13.453125" style="1" customWidth="1"/>
+    <col min="2807" max="2807" width="8.08984375" style="1" customWidth="1"/>
+    <col min="2808" max="2823" width="5.6328125" style="1" customWidth="1"/>
+    <col min="2824" max="3061" width="9" style="1"/>
+    <col min="3062" max="3062" width="13.453125" style="1" customWidth="1"/>
+    <col min="3063" max="3063" width="8.08984375" style="1" customWidth="1"/>
+    <col min="3064" max="3079" width="5.6328125" style="1" customWidth="1"/>
+    <col min="3080" max="3317" width="9" style="1"/>
+    <col min="3318" max="3318" width="13.453125" style="1" customWidth="1"/>
+    <col min="3319" max="3319" width="8.08984375" style="1" customWidth="1"/>
+    <col min="3320" max="3335" width="5.6328125" style="1" customWidth="1"/>
+    <col min="3336" max="3573" width="9" style="1"/>
+    <col min="3574" max="3574" width="13.453125" style="1" customWidth="1"/>
+    <col min="3575" max="3575" width="8.08984375" style="1" customWidth="1"/>
+    <col min="3576" max="3591" width="5.6328125" style="1" customWidth="1"/>
+    <col min="3592" max="3829" width="9" style="1"/>
+    <col min="3830" max="3830" width="13.453125" style="1" customWidth="1"/>
+    <col min="3831" max="3831" width="8.08984375" style="1" customWidth="1"/>
+    <col min="3832" max="3847" width="5.6328125" style="1" customWidth="1"/>
+    <col min="3848" max="4085" width="9" style="1"/>
+    <col min="4086" max="4086" width="13.453125" style="1" customWidth="1"/>
+    <col min="4087" max="4087" width="8.08984375" style="1" customWidth="1"/>
+    <col min="4088" max="4103" width="5.6328125" style="1" customWidth="1"/>
+    <col min="4104" max="4341" width="9" style="1"/>
+    <col min="4342" max="4342" width="13.453125" style="1" customWidth="1"/>
+    <col min="4343" max="4343" width="8.08984375" style="1" customWidth="1"/>
+    <col min="4344" max="4359" width="5.6328125" style="1" customWidth="1"/>
+    <col min="4360" max="4597" width="9" style="1"/>
+    <col min="4598" max="4598" width="13.453125" style="1" customWidth="1"/>
+    <col min="4599" max="4599" width="8.08984375" style="1" customWidth="1"/>
+    <col min="4600" max="4615" width="5.6328125" style="1" customWidth="1"/>
+    <col min="4616" max="4853" width="9" style="1"/>
+    <col min="4854" max="4854" width="13.453125" style="1" customWidth="1"/>
+    <col min="4855" max="4855" width="8.08984375" style="1" customWidth="1"/>
+    <col min="4856" max="4871" width="5.6328125" style="1" customWidth="1"/>
+    <col min="4872" max="5109" width="9" style="1"/>
+    <col min="5110" max="5110" width="13.453125" style="1" customWidth="1"/>
+    <col min="5111" max="5111" width="8.08984375" style="1" customWidth="1"/>
+    <col min="5112" max="5127" width="5.6328125" style="1" customWidth="1"/>
+    <col min="5128" max="5365" width="9" style="1"/>
+    <col min="5366" max="5366" width="13.453125" style="1" customWidth="1"/>
+    <col min="5367" max="5367" width="8.08984375" style="1" customWidth="1"/>
+    <col min="5368" max="5383" width="5.6328125" style="1" customWidth="1"/>
+    <col min="5384" max="5621" width="9" style="1"/>
+    <col min="5622" max="5622" width="13.453125" style="1" customWidth="1"/>
+    <col min="5623" max="5623" width="8.08984375" style="1" customWidth="1"/>
+    <col min="5624" max="5639" width="5.6328125" style="1" customWidth="1"/>
+    <col min="5640" max="5877" width="9" style="1"/>
+    <col min="5878" max="5878" width="13.453125" style="1" customWidth="1"/>
+    <col min="5879" max="5879" width="8.08984375" style="1" customWidth="1"/>
+    <col min="5880" max="5895" width="5.6328125" style="1" customWidth="1"/>
+    <col min="5896" max="6133" width="9" style="1"/>
+    <col min="6134" max="6134" width="13.453125" style="1" customWidth="1"/>
+    <col min="6135" max="6135" width="8.08984375" style="1" customWidth="1"/>
+    <col min="6136" max="6151" width="5.6328125" style="1" customWidth="1"/>
+    <col min="6152" max="6389" width="9" style="1"/>
+    <col min="6390" max="6390" width="13.453125" style="1" customWidth="1"/>
+    <col min="6391" max="6391" width="8.08984375" style="1" customWidth="1"/>
+    <col min="6392" max="6407" width="5.6328125" style="1" customWidth="1"/>
+    <col min="6408" max="6645" width="9" style="1"/>
+    <col min="6646" max="6646" width="13.453125" style="1" customWidth="1"/>
+    <col min="6647" max="6647" width="8.08984375" style="1" customWidth="1"/>
+    <col min="6648" max="6663" width="5.6328125" style="1" customWidth="1"/>
+    <col min="6664" max="6901" width="9" style="1"/>
+    <col min="6902" max="6902" width="13.453125" style="1" customWidth="1"/>
+    <col min="6903" max="6903" width="8.08984375" style="1" customWidth="1"/>
+    <col min="6904" max="6919" width="5.6328125" style="1" customWidth="1"/>
+    <col min="6920" max="7157" width="9" style="1"/>
+    <col min="7158" max="7158" width="13.453125" style="1" customWidth="1"/>
+    <col min="7159" max="7159" width="8.08984375" style="1" customWidth="1"/>
+    <col min="7160" max="7175" width="5.6328125" style="1" customWidth="1"/>
+    <col min="7176" max="7413" width="9" style="1"/>
+    <col min="7414" max="7414" width="13.453125" style="1" customWidth="1"/>
+    <col min="7415" max="7415" width="8.08984375" style="1" customWidth="1"/>
+    <col min="7416" max="7431" width="5.6328125" style="1" customWidth="1"/>
+    <col min="7432" max="7669" width="9" style="1"/>
+    <col min="7670" max="7670" width="13.453125" style="1" customWidth="1"/>
+    <col min="7671" max="7671" width="8.08984375" style="1" customWidth="1"/>
+    <col min="7672" max="7687" width="5.6328125" style="1" customWidth="1"/>
+    <col min="7688" max="7925" width="9" style="1"/>
+    <col min="7926" max="7926" width="13.453125" style="1" customWidth="1"/>
+    <col min="7927" max="7927" width="8.08984375" style="1" customWidth="1"/>
+    <col min="7928" max="7943" width="5.6328125" style="1" customWidth="1"/>
+    <col min="7944" max="8181" width="9" style="1"/>
+    <col min="8182" max="8182" width="13.453125" style="1" customWidth="1"/>
+    <col min="8183" max="8183" width="8.08984375" style="1" customWidth="1"/>
+    <col min="8184" max="8199" width="5.6328125" style="1" customWidth="1"/>
+    <col min="8200" max="8437" width="9" style="1"/>
+    <col min="8438" max="8438" width="13.453125" style="1" customWidth="1"/>
+    <col min="8439" max="8439" width="8.08984375" style="1" customWidth="1"/>
+    <col min="8440" max="8455" width="5.6328125" style="1" customWidth="1"/>
+    <col min="8456" max="8693" width="9" style="1"/>
+    <col min="8694" max="8694" width="13.453125" style="1" customWidth="1"/>
+    <col min="8695" max="8695" width="8.08984375" style="1" customWidth="1"/>
+    <col min="8696" max="8711" width="5.6328125" style="1" customWidth="1"/>
+    <col min="8712" max="8949" width="9" style="1"/>
+    <col min="8950" max="8950" width="13.453125" style="1" customWidth="1"/>
+    <col min="8951" max="8951" width="8.08984375" style="1" customWidth="1"/>
+    <col min="8952" max="8967" width="5.6328125" style="1" customWidth="1"/>
+    <col min="8968" max="9205" width="9" style="1"/>
+    <col min="9206" max="9206" width="13.453125" style="1" customWidth="1"/>
+    <col min="9207" max="9207" width="8.08984375" style="1" customWidth="1"/>
+    <col min="9208" max="9223" width="5.6328125" style="1" customWidth="1"/>
+    <col min="9224" max="9461" width="9" style="1"/>
+    <col min="9462" max="9462" width="13.453125" style="1" customWidth="1"/>
+    <col min="9463" max="9463" width="8.08984375" style="1" customWidth="1"/>
+    <col min="9464" max="9479" width="5.6328125" style="1" customWidth="1"/>
+    <col min="9480" max="9717" width="9" style="1"/>
+    <col min="9718" max="9718" width="13.453125" style="1" customWidth="1"/>
+    <col min="9719" max="9719" width="8.08984375" style="1" customWidth="1"/>
+    <col min="9720" max="9735" width="5.6328125" style="1" customWidth="1"/>
+    <col min="9736" max="9973" width="9" style="1"/>
+    <col min="9974" max="9974" width="13.453125" style="1" customWidth="1"/>
+    <col min="9975" max="9975" width="8.08984375" style="1" customWidth="1"/>
+    <col min="9976" max="9991" width="5.6328125" style="1" customWidth="1"/>
+    <col min="9992" max="10229" width="9" style="1"/>
+    <col min="10230" max="10230" width="13.453125" style="1" customWidth="1"/>
+    <col min="10231" max="10231" width="8.08984375" style="1" customWidth="1"/>
+    <col min="10232" max="10247" width="5.6328125" style="1" customWidth="1"/>
+    <col min="10248" max="10485" width="9" style="1"/>
+    <col min="10486" max="10486" width="13.453125" style="1" customWidth="1"/>
+    <col min="10487" max="10487" width="8.08984375" style="1" customWidth="1"/>
+    <col min="10488" max="10503" width="5.6328125" style="1" customWidth="1"/>
+    <col min="10504" max="10741" width="9" style="1"/>
+    <col min="10742" max="10742" width="13.453125" style="1" customWidth="1"/>
+    <col min="10743" max="10743" width="8.08984375" style="1" customWidth="1"/>
+    <col min="10744" max="10759" width="5.6328125" style="1" customWidth="1"/>
+    <col min="10760" max="10997" width="9" style="1"/>
+    <col min="10998" max="10998" width="13.453125" style="1" customWidth="1"/>
+    <col min="10999" max="10999" width="8.08984375" style="1" customWidth="1"/>
+    <col min="11000" max="11015" width="5.6328125" style="1" customWidth="1"/>
+    <col min="11016" max="11253" width="9" style="1"/>
+    <col min="11254" max="11254" width="13.453125" style="1" customWidth="1"/>
+    <col min="11255" max="11255" width="8.08984375" style="1" customWidth="1"/>
+    <col min="11256" max="11271" width="5.6328125" style="1" customWidth="1"/>
+    <col min="11272" max="11509" width="9" style="1"/>
+    <col min="11510" max="11510" width="13.453125" style="1" customWidth="1"/>
+    <col min="11511" max="11511" width="8.08984375" style="1" customWidth="1"/>
+    <col min="11512" max="11527" width="5.6328125" style="1" customWidth="1"/>
+    <col min="11528" max="11765" width="9" style="1"/>
+    <col min="11766" max="11766" width="13.453125" style="1" customWidth="1"/>
+    <col min="11767" max="11767" width="8.08984375" style="1" customWidth="1"/>
+    <col min="11768" max="11783" width="5.6328125" style="1" customWidth="1"/>
+    <col min="11784" max="12021" width="9" style="1"/>
+    <col min="12022" max="12022" width="13.453125" style="1" customWidth="1"/>
+    <col min="12023" max="12023" width="8.08984375" style="1" customWidth="1"/>
+    <col min="12024" max="12039" width="5.6328125" style="1" customWidth="1"/>
+    <col min="12040" max="12277" width="9" style="1"/>
+    <col min="12278" max="12278" width="13.453125" style="1" customWidth="1"/>
+    <col min="12279" max="12279" width="8.08984375" style="1" customWidth="1"/>
+    <col min="12280" max="12295" width="5.6328125" style="1" customWidth="1"/>
+    <col min="12296" max="12533" width="9" style="1"/>
+    <col min="12534" max="12534" width="13.453125" style="1" customWidth="1"/>
+    <col min="12535" max="12535" width="8.08984375" style="1" customWidth="1"/>
+    <col min="12536" max="12551" width="5.6328125" style="1" customWidth="1"/>
+    <col min="12552" max="12789" width="9" style="1"/>
+    <col min="12790" max="12790" width="13.453125" style="1" customWidth="1"/>
+    <col min="12791" max="12791" width="8.08984375" style="1" customWidth="1"/>
+    <col min="12792" max="12807" width="5.6328125" style="1" customWidth="1"/>
+    <col min="12808" max="13045" width="9" style="1"/>
+    <col min="13046" max="13046" width="13.453125" style="1" customWidth="1"/>
+    <col min="13047" max="13047" width="8.08984375" style="1" customWidth="1"/>
+    <col min="13048" max="13063" width="5.6328125" style="1" customWidth="1"/>
+    <col min="13064" max="13301" width="9" style="1"/>
+    <col min="13302" max="13302" width="13.453125" style="1" customWidth="1"/>
+    <col min="13303" max="13303" width="8.08984375" style="1" customWidth="1"/>
+    <col min="13304" max="13319" width="5.6328125" style="1" customWidth="1"/>
+    <col min="13320" max="13557" width="9" style="1"/>
+    <col min="13558" max="13558" width="13.453125" style="1" customWidth="1"/>
+    <col min="13559" max="13559" width="8.08984375" style="1" customWidth="1"/>
+    <col min="13560" max="13575" width="5.6328125" style="1" customWidth="1"/>
+    <col min="13576" max="13813" width="9" style="1"/>
+    <col min="13814" max="13814" width="13.453125" style="1" customWidth="1"/>
+    <col min="13815" max="13815" width="8.08984375" style="1" customWidth="1"/>
+    <col min="13816" max="13831" width="5.6328125" style="1" customWidth="1"/>
+    <col min="13832" max="14069" width="9" style="1"/>
+    <col min="14070" max="14070" width="13.453125" style="1" customWidth="1"/>
+    <col min="14071" max="14071" width="8.08984375" style="1" customWidth="1"/>
+    <col min="14072" max="14087" width="5.6328125" style="1" customWidth="1"/>
+    <col min="14088" max="14325" width="9" style="1"/>
+    <col min="14326" max="14326" width="13.453125" style="1" customWidth="1"/>
+    <col min="14327" max="14327" width="8.08984375" style="1" customWidth="1"/>
+    <col min="14328" max="14343" width="5.6328125" style="1" customWidth="1"/>
+    <col min="14344" max="14581" width="9" style="1"/>
+    <col min="14582" max="14582" width="13.453125" style="1" customWidth="1"/>
+    <col min="14583" max="14583" width="8.08984375" style="1" customWidth="1"/>
+    <col min="14584" max="14599" width="5.6328125" style="1" customWidth="1"/>
+    <col min="14600" max="14837" width="9" style="1"/>
+    <col min="14838" max="14838" width="13.453125" style="1" customWidth="1"/>
+    <col min="14839" max="14839" width="8.08984375" style="1" customWidth="1"/>
+    <col min="14840" max="14855" width="5.6328125" style="1" customWidth="1"/>
+    <col min="14856" max="15093" width="9" style="1"/>
+    <col min="15094" max="15094" width="13.453125" style="1" customWidth="1"/>
+    <col min="15095" max="15095" width="8.08984375" style="1" customWidth="1"/>
+    <col min="15096" max="15111" width="5.6328125" style="1" customWidth="1"/>
+    <col min="15112" max="15349" width="9" style="1"/>
+    <col min="15350" max="15350" width="13.453125" style="1" customWidth="1"/>
+    <col min="15351" max="15351" width="8.08984375" style="1" customWidth="1"/>
+    <col min="15352" max="15367" width="5.6328125" style="1" customWidth="1"/>
+    <col min="15368" max="15605" width="9" style="1"/>
+    <col min="15606" max="15606" width="13.453125" style="1" customWidth="1"/>
+    <col min="15607" max="15607" width="8.08984375" style="1" customWidth="1"/>
+    <col min="15608" max="15623" width="5.6328125" style="1" customWidth="1"/>
+    <col min="15624" max="15861" width="9" style="1"/>
+    <col min="15862" max="15862" width="13.453125" style="1" customWidth="1"/>
+    <col min="15863" max="15863" width="8.08984375" style="1" customWidth="1"/>
+    <col min="15864" max="15879" width="5.6328125" style="1" customWidth="1"/>
+    <col min="15880" max="16117" width="9" style="1"/>
+    <col min="16118" max="16118" width="13.453125" style="1" customWidth="1"/>
+    <col min="16119" max="16119" width="8.08984375" style="1" customWidth="1"/>
+    <col min="16120" max="16135" width="5.6328125" style="1" customWidth="1"/>
+    <col min="16136" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="25" customHeight="1">
+      <c r="A1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+    </row>
+    <row r="2" spans="1:16" ht="17.25" customHeight="1">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:16" ht="17.25" customHeight="1">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A4" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:16" ht="16" customHeight="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="12"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="12"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="12"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="12"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="12"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="12"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="15"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="12"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="15"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="12"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="15"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="12"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="15"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="12"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="15"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="12"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="15"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="12"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="15"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="12"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="15"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="12"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="15"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="12"/>
+    </row>
+    <row r="49" spans="1:10" ht="58.9" customHeight="1">
+      <c r="A49" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B49:J49"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:J6"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <conditionalFormatting sqref="O10:P10">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/formwork.xlsx
+++ b/formwork.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QT\demoFile\DataProcessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70DFD8D-EDDB-46A4-BCE3-4C5685BDD4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B9F9E7-083B-4C58-839A-70ED4D4DC8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3643" yWindow="14931" windowWidth="16457" windowHeight="9498" tabRatio="721" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4226" yWindow="15514" windowWidth="16457" windowHeight="9497" tabRatio="721" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1成绩" sheetId="14" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
   <si>
     <t>作业</t>
   </si>
@@ -69,12 +69,6 @@
     <t>折合成绩</t>
   </si>
   <si>
-    <t>备注：</t>
-  </si>
-  <si>
-    <t>1.考核项目按课程大纲填写,须填写比例。2.折合成绩和总成绩自动计算，无需输入。3.可删除多余行列,并适当调整行宽、列宽及列边距，使表格居中。4.建议输入数据时在保护模式下进行，若要删除行列，则需撤销保护。5.若删除了列，必须修改总成绩列的公式。6.学生信息可从教务系统导入。7.此备注行可整行删除。</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve"> </t>
     </r>
@@ -91,11 +85,11 @@
      项目
  姓名    </t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>考勤</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -106,7 +100,7 @@
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,12 +160,6 @@
       <color indexed="56"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -251,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -293,15 +281,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -320,26 +299,26 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -371,9 +350,6 @@
     <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -383,17 +359,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -401,20 +380,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -428,32 +398,7 @@
     <cellStyle name="常规 4" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="常规 5" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -756,10 +701,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1024,7 +969,7 @@
     <col min="16136" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25" customHeight="1">
+    <row r="1" spans="1:11" ht="25" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>2</v>
       </c>
@@ -1038,7 +983,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:16" ht="17.25" customHeight="1">
+    <row r="2" spans="1:11" ht="17.25" customHeight="1">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1050,7 +995,7 @@
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:16" ht="17.25" customHeight="1">
+    <row r="3" spans="1:11" ht="17.25" customHeight="1">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1062,15 +1007,15 @@
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:11" ht="16.5" customHeight="1">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>11</v>
+      <c r="B4" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20" t="s">
@@ -1081,17 +1026,17 @@
         <v>1</v>
       </c>
       <c r="H4" s="20"/>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="10"/>
+      <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
+    <row r="5" spans="1:11" ht="16.5" customHeight="1">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1104,575 +1049,59 @@
         <v>6</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="14" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
-    <row r="7" spans="1:16" ht="16" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
+    <row r="7" spans="1:11" ht="16" customHeight="1">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
       <c r="F7" s="5"/>
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="12"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="12"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="12"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="12"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="12"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="12"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="12"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="12"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="12"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="12"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="12"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="12"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="12"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="12"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="12"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="12"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="12"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="12"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="12"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="12"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="15"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="12"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="12"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="15"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="12"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="15"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="12"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="15"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="12"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="15"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="12"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="15"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="12"/>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="15"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="12"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="15"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="12"/>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="15"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="12"/>
-    </row>
-    <row r="49" spans="1:10" ht="58.9" customHeight="1">
-      <c r="A49" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B49:J49"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:J6"/>
+  <mergeCells count="10">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:J6"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="O10:P10">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
-      <formula>0.3</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.78740157480314998" bottom="0.59055118110236204" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
@@ -1683,10 +1112,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1951,7 +1380,7 @@
     <col min="16136" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25" customHeight="1">
+    <row r="1" spans="1:11" ht="25" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>2</v>
       </c>
@@ -1965,7 +1394,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:16" ht="17.25" customHeight="1">
+    <row r="2" spans="1:11" ht="17.25" customHeight="1">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1977,7 +1406,7 @@
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:16" ht="17.25" customHeight="1">
+    <row r="3" spans="1:11" ht="17.25" customHeight="1">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1989,15 +1418,15 @@
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:11" ht="16.5" customHeight="1">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>11</v>
+      <c r="B4" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20" t="s">
@@ -2008,17 +1437,17 @@
         <v>1</v>
       </c>
       <c r="H4" s="20"/>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="10"/>
+      <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
+    <row r="5" spans="1:11" ht="16.5" customHeight="1">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2031,558 +1460,47 @@
         <v>6</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="14" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
-    <row r="7" spans="1:16" ht="16" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
+    <row r="7" spans="1:11" ht="16" customHeight="1">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
       <c r="F7" s="5"/>
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="12"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="12"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="12"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="12"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="12"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="12"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="12"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="12"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="12"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="12"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="12"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="12"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="12"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="12"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="12"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="12"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="12"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="12"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="12"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="12"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="15"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="12"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="12"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="15"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="12"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="15"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="12"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="15"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="12"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="15"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="12"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="15"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="12"/>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="15"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="12"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="15"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="12"/>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="15"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="12"/>
-    </row>
-    <row r="49" spans="1:10" ht="58.9" customHeight="1">
-      <c r="A49" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B49:J49"/>
+  <mergeCells count="10">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
@@ -2594,12 +1512,7 @@
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="J4:J6"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="O10:P10">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>0.3</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.78740157480314998" bottom="0.59055118110236204" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
